--- a/Data/EC/NIT-8000304121.xlsx
+++ b/Data/EC/NIT-8000304121.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF4C0D06-CC49-4CE1-893E-C3F4E8F55719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03AD9F39-F6B5-427A-9F58-D9235136FD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E559227A-7B5E-41F9-BEDB-F980F8EEF6F2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D8D36BB7-7B5F-4492-BF5C-6F1E5B17BA77}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -74,6 +74,15 @@
     <t>1609</t>
   </si>
   <si>
+    <t>9296620</t>
+  </si>
+  <si>
+    <t>OBELIS EDMUNDO PEÑA SUAREZ</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
     <t>1063170757</t>
   </si>
   <si>
@@ -81,15 +90,6 @@
   </si>
   <si>
     <t>1710</t>
-  </si>
-  <si>
-    <t>9296620</t>
-  </si>
-  <si>
-    <t>OBELIS EDMUNDO PEÑA SUAREZ</t>
-  </si>
-  <si>
-    <t>1711</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -503,7 +503,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9236159A-C27C-A1B3-E795-80C386128DC5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{010C3B10-57DE-065E-BCD5-771EA260E7CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,7 +854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79EA98D0-7DC6-47B7-914F-482D42F5FA11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE5EFD1-C327-418B-96F6-3FEE67FF41BA}">
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1055,10 +1055,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>14755</v>
+        <v>24369</v>
       </c>
       <c r="G17" s="18">
-        <v>1206660</v>
+        <v>1218448</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1075,13 +1075,13 @@
         <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>24369</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>1218448</v>
+        <v>1206660</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1092,16 +1092,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19" s="22" t="s">
         <v>17</v>
       </c>
       <c r="F19" s="24">
-        <v>29509</v>
+        <v>14755</v>
       </c>
       <c r="G19" s="24">
         <v>1206660</v>
